--- a/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3490</v>
+        <v>3589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1684089344896053</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5305757499888465</v>
+        <v>0.5456844138716362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1838</v>
+        <v>2058</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09361933107530285</v>
+        <v>0.09361933107530282</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3764573100959492</v>
+        <v>0.4214796537482745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>1565</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4175</v>
+        <v>3860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1365450034476353</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03819436272309466</v>
+        <v>0.03810617042885101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3642834295729945</v>
+        <v>0.3368478873297854</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5220</v>
+        <v>5235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5107938915777556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1537690413006486</v>
+        <v>0.1520789650787931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7936474837003933</v>
+        <v>0.7958996984695893</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>3050</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1410</v>
+        <v>1146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4435</v>
+        <v>4432</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6247839835923398</v>
+        <v>0.6247839835923394</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2887803932578014</v>
+        <v>0.2346651722254864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9083560713291332</v>
+        <v>0.907793326089284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>6410</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3670</v>
+        <v>3602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8758</v>
+        <v>8719</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5593590967079372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3202054971144065</v>
+        <v>0.3143204384878387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7641935465773949</v>
+        <v>0.7608368133052207</v>
       </c>
     </row>
     <row r="6">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3071</v>
+        <v>2964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1058488885205902</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4669420115057465</v>
+        <v>0.4507356924498315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2599</v>
+        <v>2933</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2038233551226065</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.532306320386014</v>
+        <v>0.6006981164302001</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -972,19 +972,19 @@
         <v>1691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4535</v>
+        <v>4173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.147590674880744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03661179168333019</v>
+        <v>0.03365541732952927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3957563631475601</v>
+        <v>0.3641182453389853</v>
       </c>
     </row>
     <row r="8">
@@ -1001,19 +1001,19 @@
         <v>1414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3369</v>
+        <v>3842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2149482854120489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0597259139533431</v>
+        <v>0.06123833633465453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5122302103307347</v>
+        <v>0.5841711526904182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1861</v>
+        <v>2051</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07777333020975107</v>
+        <v>0.07777333020975104</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3811721638355495</v>
+        <v>0.4200882870464318</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1043,19 +1043,19 @@
         <v>1794</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4223</v>
+        <v>4278</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1565052249636836</v>
+        <v>0.1565052249636837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04060566532353363</v>
+        <v>0.04453585557707106</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3685212861228274</v>
+        <v>0.3732784712481315</v>
       </c>
     </row>
     <row r="9">
@@ -1150,16 +1150,16 @@
         <v>314</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3066</v>
+        <v>2994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1319982938917382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03566663266310291</v>
+        <v>0.03572157163619875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3483965687344679</v>
+        <v>0.3402308876672451</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1168,19 +1168,19 @@
         <v>7934</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4636</v>
+        <v>4659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12885</v>
+        <v>13290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1868173478344728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1091636846820762</v>
+        <v>0.1096920806633681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3033889600074723</v>
+        <v>0.3129313656948726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1189,19 +1189,19 @@
         <v>9096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5553</v>
+        <v>5402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14198</v>
+        <v>14085</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1774085085760346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.108309797439461</v>
+        <v>0.1053726997082172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2769341218785857</v>
+        <v>0.2747318357544247</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>3140</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1040</v>
+        <v>1193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5366</v>
+        <v>5636</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3568378232656291</v>
+        <v>0.356837823265629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1181622365360332</v>
+        <v>0.1355901862314812</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6098241699117475</v>
+        <v>0.6404159951013021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1239,19 +1239,19 @@
         <v>11112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7128</v>
+        <v>7175</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16094</v>
+        <v>15894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2616472003667794</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1678251824061359</v>
+        <v>0.1689453947391571</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3789413805441129</v>
+        <v>0.3742388138127184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1260,19 +1260,19 @@
         <v>14252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9804</v>
+        <v>9954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19587</v>
+        <v>19080</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2779851924580235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1912326760481309</v>
+        <v>0.1941493172908514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3820407758013796</v>
+        <v>0.372158640622525</v>
       </c>
     </row>
     <row r="12">
@@ -1302,19 +1302,19 @@
         <v>2210</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6515</v>
+        <v>6473</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0520458730865372</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009640240929891856</v>
+        <v>0.009569710185520603</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1534007427923344</v>
+        <v>0.1524045800505719</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1323,19 +1323,19 @@
         <v>2210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7365</v>
+        <v>6570</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04311300725401399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008214188230805027</v>
+        <v>0.008543588177325834</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1436577000595749</v>
+        <v>0.1281554967761663</v>
       </c>
     </row>
     <row r="13">
@@ -1352,19 +1352,19 @@
         <v>1848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4145</v>
+        <v>4127</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2099679885376042</v>
+        <v>0.2099679885376041</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05132529249798062</v>
+        <v>0.05544308207563807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4710160927592194</v>
+        <v>0.468993851025805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1373,19 +1373,19 @@
         <v>11429</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7324</v>
+        <v>7238</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17458</v>
+        <v>17035</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2691177372857551</v>
+        <v>0.269117737285755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1724560965446785</v>
+        <v>0.1704259182156403</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4110592986619696</v>
+        <v>0.401097259581559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1394,19 +1394,19 @@
         <v>13277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8794</v>
+        <v>8761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19136</v>
+        <v>19734</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2589656015205206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1715350310966607</v>
+        <v>0.1708797608033321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3732489528293398</v>
+        <v>0.3849131363215297</v>
       </c>
     </row>
     <row r="14">
@@ -1423,19 +1423,19 @@
         <v>2651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1059</v>
+        <v>823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5420</v>
+        <v>4885</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3011958943050286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1203505285378902</v>
+        <v>0.0935017101726887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6159257297746523</v>
+        <v>0.555166419185024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1444,19 +1444,19 @@
         <v>9784</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6189</v>
+        <v>6114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14338</v>
+        <v>14749</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2303718414264555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1457344064049334</v>
+        <v>0.1439558782324689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.337597680356083</v>
+        <v>0.3472829451086423</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1465,19 +1465,19 @@
         <v>12434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8073</v>
+        <v>8345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17474</v>
+        <v>17587</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2425276901914074</v>
+        <v>0.2425276901914073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1574647978372325</v>
+        <v>0.1627640911908872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3408275156611537</v>
+        <v>0.3430326610884855</v>
       </c>
     </row>
     <row r="15">
@@ -1569,19 +1569,19 @@
         <v>2269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>853</v>
+        <v>790</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5063</v>
+        <v>5021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1475728464921347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05549919577643412</v>
+        <v>0.05135073173355617</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3292897631433143</v>
+        <v>0.3265185631179519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1590,19 +1590,19 @@
         <v>8391</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5110</v>
+        <v>4980</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12698</v>
+        <v>13078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1772076500610974</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1079255213109347</v>
+        <v>0.1051774473368052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2681545116949612</v>
+        <v>0.2761875852497174</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1611,19 +1611,19 @@
         <v>10660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6973</v>
+        <v>6392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16504</v>
+        <v>15463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1699431538362318</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.111161629463622</v>
+        <v>0.1018943414641384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.263092410744687</v>
+        <v>0.2465089943357607</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>6500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3432</v>
+        <v>3573</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9678</v>
+        <v>9740</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4226921132398053</v>
+        <v>0.4226921132398054</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2231964019109675</v>
+        <v>0.2323744169386474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6294051647483013</v>
+        <v>0.6333981952944047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1661,19 +1661,19 @@
         <v>14163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9629</v>
+        <v>9468</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19048</v>
+        <v>19335</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2990904299390438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2033457854336364</v>
+        <v>0.1999445857258669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4022673226927945</v>
+        <v>0.4083191475823811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1682,19 +1682,19 @@
         <v>20662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15715</v>
+        <v>15256</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27486</v>
+        <v>27657</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3293893978277937</v>
+        <v>0.3293893978277938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2505211043689401</v>
+        <v>0.2432011486084057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4381687048844333</v>
+        <v>0.4408912732866342</v>
       </c>
     </row>
     <row r="18">
@@ -1724,19 +1724,19 @@
         <v>2210</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6759</v>
+        <v>6853</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04667939504220842</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009112756437644195</v>
+        <v>0.008647047532073225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1427415612818623</v>
+        <v>0.1447344468456234</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1745,19 +1745,19 @@
         <v>2210</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6575</v>
+        <v>6531</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03523669091649984</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006424362771888652</v>
+        <v>0.006574232060284624</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.104817499561742</v>
+        <v>0.1041082311573849</v>
       </c>
     </row>
     <row r="19">
@@ -1774,19 +1774,19 @@
         <v>2544</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5681</v>
+        <v>5549</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.16543132636155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04336340721255699</v>
+        <v>0.04801209675282248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3694391749249263</v>
+        <v>0.3608427237056753</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1795,19 +1795,19 @@
         <v>12424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7969</v>
+        <v>7634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18034</v>
+        <v>18232</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2623851983250975</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1683014274783376</v>
+        <v>0.1612153488362398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3808431377434</v>
+        <v>0.3850367997220994</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1816,19 +1816,19 @@
         <v>14968</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9791</v>
+        <v>9746</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21012</v>
+        <v>20823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2386185134801557</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1560885388405704</v>
+        <v>0.1553632403986053</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3349638966851518</v>
+        <v>0.3319445316070062</v>
       </c>
     </row>
     <row r="20">
@@ -1845,19 +1845,19 @@
         <v>4064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1726</v>
+        <v>1832</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7238</v>
+        <v>7461</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.26430371390651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.112267593399009</v>
+        <v>0.119164766064563</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4707164265228482</v>
+        <v>0.4852244890218781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1866,19 +1866,19 @@
         <v>10164</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6581</v>
+        <v>6510</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14930</v>
+        <v>15167</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2146373266325527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1389764221352889</v>
+        <v>0.137482653443179</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3153001973777188</v>
+        <v>0.3203109930076976</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1887,19 +1887,19 @@
         <v>14228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9529</v>
+        <v>9414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19718</v>
+        <v>19519</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2268122439393187</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1519023064265319</v>
+        <v>0.1500817354547207</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3143308491716217</v>
+        <v>0.3111651353794506</v>
       </c>
     </row>
     <row r="21">
